--- a/Indata/pagaende_sjukfall_diagnos.xlsx
+++ b/Indata/pagaende_sjukfall_diagnos.xlsx
@@ -44,7 +44,7 @@
     <t xml:space="preserve">2024</t>
   </si>
   <si>
-    <t xml:space="preserve">04</t>
+    <t xml:space="preserve">10</t>
   </si>
   <si>
     <t xml:space="preserve">Kvinnor och män</t>
@@ -62,7 +62,7 @@
     <t xml:space="preserve">Riket</t>
   </si>
   <si>
-    <t xml:space="preserve">april</t>
+    <t xml:space="preserve">oktober</t>
   </si>
   <si>
     <t xml:space="preserve">17 Värmlands län</t>
@@ -595,7 +595,7 @@
         <v>26</v>
       </c>
       <c r="F6" t="n">
-        <v>49</v>
+        <v>48.7</v>
       </c>
       <c r="G6" t="s">
         <v>14</v>
@@ -624,7 +624,7 @@
         <v>26</v>
       </c>
       <c r="F7" t="n">
-        <v>54</v>
+        <v>55.2</v>
       </c>
       <c r="G7" t="s">
         <v>18</v>
@@ -653,7 +653,7 @@
         <v>26</v>
       </c>
       <c r="F8" t="n">
-        <v>53.5</v>
+        <v>53.7</v>
       </c>
       <c r="G8" t="s">
         <v>21</v>
@@ -682,7 +682,7 @@
         <v>26</v>
       </c>
       <c r="F9" t="n">
-        <v>46.7</v>
+        <v>49.1</v>
       </c>
       <c r="G9" t="s">
         <v>24</v>
@@ -711,7 +711,7 @@
         <v>27</v>
       </c>
       <c r="F10" t="n">
-        <v>17</v>
+        <v>17.6</v>
       </c>
       <c r="G10" t="s">
         <v>14</v>
@@ -740,7 +740,7 @@
         <v>27</v>
       </c>
       <c r="F11" t="n">
-        <v>16.9</v>
+        <v>17</v>
       </c>
       <c r="G11" t="s">
         <v>18</v>
@@ -769,7 +769,7 @@
         <v>27</v>
       </c>
       <c r="F12" t="n">
-        <v>15.4</v>
+        <v>15.6</v>
       </c>
       <c r="G12" t="s">
         <v>21</v>
@@ -798,7 +798,7 @@
         <v>27</v>
       </c>
       <c r="F13" t="n">
-        <v>17.5</v>
+        <v>18.1</v>
       </c>
       <c r="G13" t="s">
         <v>24</v>
@@ -943,7 +943,7 @@
         <v>26</v>
       </c>
       <c r="F18" t="n">
-        <v>52.9</v>
+        <v>52.7</v>
       </c>
       <c r="G18" t="s">
         <v>14</v>
@@ -972,7 +972,7 @@
         <v>26</v>
       </c>
       <c r="F19" t="n">
-        <v>58.3</v>
+        <v>59.8</v>
       </c>
       <c r="G19" t="s">
         <v>18</v>
@@ -1001,7 +1001,7 @@
         <v>26</v>
       </c>
       <c r="F20" t="n">
-        <v>57.7</v>
+        <v>57.1</v>
       </c>
       <c r="G20" t="s">
         <v>21</v>
@@ -1030,7 +1030,7 @@
         <v>26</v>
       </c>
       <c r="F21" t="n">
-        <v>50.5</v>
+        <v>53.2</v>
       </c>
       <c r="G21" t="s">
         <v>24</v>
@@ -1059,7 +1059,7 @@
         <v>27</v>
       </c>
       <c r="F22" t="n">
-        <v>15.4</v>
+        <v>16.1</v>
       </c>
       <c r="G22" t="s">
         <v>14</v>
@@ -1088,7 +1088,7 @@
         <v>27</v>
       </c>
       <c r="F23" t="n">
-        <v>15.3</v>
+        <v>15.2</v>
       </c>
       <c r="G23" t="s">
         <v>18</v>
@@ -1117,7 +1117,7 @@
         <v>27</v>
       </c>
       <c r="F24" t="n">
-        <v>13.5</v>
+        <v>13.9</v>
       </c>
       <c r="G24" t="s">
         <v>21</v>
@@ -1146,7 +1146,7 @@
         <v>27</v>
       </c>
       <c r="F25" t="n">
-        <v>16.5</v>
+        <v>16.7</v>
       </c>
       <c r="G25" t="s">
         <v>24</v>
@@ -1291,7 +1291,7 @@
         <v>26</v>
       </c>
       <c r="F30" t="n">
-        <v>41.6</v>
+        <v>41.2</v>
       </c>
       <c r="G30" t="s">
         <v>14</v>
@@ -1320,7 +1320,7 @@
         <v>26</v>
       </c>
       <c r="F31" t="n">
-        <v>45.1</v>
+        <v>45.9</v>
       </c>
       <c r="G31" t="s">
         <v>18</v>
@@ -1349,7 +1349,7 @@
         <v>26</v>
       </c>
       <c r="F32" t="n">
-        <v>45.1</v>
+        <v>47</v>
       </c>
       <c r="G32" t="s">
         <v>21</v>
@@ -1378,7 +1378,7 @@
         <v>26</v>
       </c>
       <c r="F33" t="n">
-        <v>39.4</v>
+        <v>41</v>
       </c>
       <c r="G33" t="s">
         <v>24</v>
@@ -1407,7 +1407,7 @@
         <v>27</v>
       </c>
       <c r="F34" t="n">
-        <v>20.2</v>
+        <v>20.6</v>
       </c>
       <c r="G34" t="s">
         <v>14</v>
@@ -1436,7 +1436,7 @@
         <v>27</v>
       </c>
       <c r="F35" t="n">
-        <v>20.1</v>
+        <v>20.5</v>
       </c>
       <c r="G35" t="s">
         <v>18</v>
@@ -1494,7 +1494,7 @@
         <v>27</v>
       </c>
       <c r="F37" t="n">
-        <v>19.4</v>
+        <v>21</v>
       </c>
       <c r="G37" t="s">
         <v>24</v>
